--- a/Tables/Sources/sdk/ad_config.xlsx
+++ b/Tables/Sources/sdk/ad_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27700" windowHeight="14020"/>
+    <workbookView windowWidth="27110" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Max" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -114,16 +114,19 @@
     <t>1</t>
   </si>
   <si>
+    <t>MixFull0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>inter</t>
+  </si>
+  <si>
+    <t>XXX-Facebook-Android-Inter0</t>
+  </si>
+  <si>
     <t>Inter0</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>inter</t>
-  </si>
-  <si>
-    <t>XXX-Facebook-Android-Inter0</t>
   </si>
   <si>
     <t>FaceBook</t>
@@ -368,13 +371,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +414,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -424,16 +434,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -456,37 +525,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -502,37 +549,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,23 +570,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,7 +592,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +688,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,37 +730,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,121 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,24 +1006,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1031,23 +1049,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,6 +1060,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,27 +1102,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,137 +1120,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1366,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1731,7 +1750,7 @@
   <dimension ref="A1:IV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="14" outlineLevelRow="6"/>
@@ -1918,254 +1937,254 @@
         <v>24</v>
       </c>
       <c r="H5" s="42"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="45"/>
-      <c r="BX5" s="45"/>
-      <c r="BY5" s="45"/>
-      <c r="BZ5" s="45"/>
-      <c r="CA5" s="45"/>
-      <c r="CB5" s="45"/>
-      <c r="CC5" s="45"/>
-      <c r="CD5" s="45"/>
-      <c r="CE5" s="45"/>
-      <c r="CF5" s="45"/>
-      <c r="CG5" s="45"/>
-      <c r="CH5" s="45"/>
-      <c r="CI5" s="45"/>
-      <c r="CJ5" s="45"/>
-      <c r="CK5" s="45"/>
-      <c r="CL5" s="45"/>
-      <c r="CM5" s="45"/>
-      <c r="CN5" s="45"/>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="45"/>
-      <c r="CQ5" s="45"/>
-      <c r="CR5" s="45"/>
-      <c r="CS5" s="45"/>
-      <c r="CT5" s="45"/>
-      <c r="CU5" s="45"/>
-      <c r="CV5" s="45"/>
-      <c r="CW5" s="45"/>
-      <c r="CX5" s="45"/>
-      <c r="CY5" s="45"/>
-      <c r="CZ5" s="45"/>
-      <c r="DA5" s="45"/>
-      <c r="DB5" s="45"/>
-      <c r="DC5" s="45"/>
-      <c r="DD5" s="45"/>
-      <c r="DE5" s="45"/>
-      <c r="DF5" s="45"/>
-      <c r="DG5" s="45"/>
-      <c r="DH5" s="45"/>
-      <c r="DI5" s="45"/>
-      <c r="DJ5" s="45"/>
-      <c r="DK5" s="45"/>
-      <c r="DL5" s="45"/>
-      <c r="DM5" s="45"/>
-      <c r="DN5" s="45"/>
-      <c r="DO5" s="45"/>
-      <c r="DP5" s="45"/>
-      <c r="DQ5" s="45"/>
-      <c r="DR5" s="45"/>
-      <c r="DS5" s="45"/>
-      <c r="DT5" s="45"/>
-      <c r="DU5" s="45"/>
-      <c r="DV5" s="45"/>
-      <c r="DW5" s="45"/>
-      <c r="DX5" s="45"/>
-      <c r="DY5" s="45"/>
-      <c r="DZ5" s="45"/>
-      <c r="EA5" s="45"/>
-      <c r="EB5" s="45"/>
-      <c r="EC5" s="45"/>
-      <c r="ED5" s="45"/>
-      <c r="EE5" s="45"/>
-      <c r="EF5" s="45"/>
-      <c r="EG5" s="45"/>
-      <c r="EH5" s="45"/>
-      <c r="EI5" s="45"/>
-      <c r="EJ5" s="45"/>
-      <c r="EK5" s="45"/>
-      <c r="EL5" s="45"/>
-      <c r="EM5" s="45"/>
-      <c r="EN5" s="45"/>
-      <c r="EO5" s="45"/>
-      <c r="EP5" s="45"/>
-      <c r="EQ5" s="45"/>
-      <c r="ER5" s="45"/>
-      <c r="ES5" s="45"/>
-      <c r="ET5" s="45"/>
-      <c r="EU5" s="45"/>
-      <c r="EV5" s="45"/>
-      <c r="EW5" s="45"/>
-      <c r="EX5" s="45"/>
-      <c r="EY5" s="45"/>
-      <c r="EZ5" s="45"/>
-      <c r="FA5" s="45"/>
-      <c r="FB5" s="45"/>
-      <c r="FC5" s="45"/>
-      <c r="FD5" s="45"/>
-      <c r="FE5" s="45"/>
-      <c r="FF5" s="45"/>
-      <c r="FG5" s="45"/>
-      <c r="FH5" s="45"/>
-      <c r="FI5" s="45"/>
-      <c r="FJ5" s="45"/>
-      <c r="FK5" s="45"/>
-      <c r="FL5" s="45"/>
-      <c r="FM5" s="45"/>
-      <c r="FN5" s="45"/>
-      <c r="FO5" s="45"/>
-      <c r="FP5" s="45"/>
-      <c r="FQ5" s="45"/>
-      <c r="FR5" s="45"/>
-      <c r="FS5" s="45"/>
-      <c r="FT5" s="45"/>
-      <c r="FU5" s="45"/>
-      <c r="FV5" s="45"/>
-      <c r="FW5" s="45"/>
-      <c r="FX5" s="45"/>
-      <c r="FY5" s="45"/>
-      <c r="FZ5" s="45"/>
-      <c r="GA5" s="45"/>
-      <c r="GB5" s="45"/>
-      <c r="GC5" s="45"/>
-      <c r="GD5" s="45"/>
-      <c r="GE5" s="45"/>
-      <c r="GF5" s="45"/>
-      <c r="GG5" s="45"/>
-      <c r="GH5" s="45"/>
-      <c r="GI5" s="45"/>
-      <c r="GJ5" s="45"/>
-      <c r="GK5" s="45"/>
-      <c r="GL5" s="45"/>
-      <c r="GM5" s="45"/>
-      <c r="GN5" s="45"/>
-      <c r="GO5" s="45"/>
-      <c r="GP5" s="45"/>
-      <c r="GQ5" s="45"/>
-      <c r="GR5" s="45"/>
-      <c r="GS5" s="45"/>
-      <c r="GT5" s="45"/>
-      <c r="GU5" s="45"/>
-      <c r="GV5" s="45"/>
-      <c r="GW5" s="45"/>
-      <c r="GX5" s="45"/>
-      <c r="GY5" s="45"/>
-      <c r="GZ5" s="45"/>
-      <c r="HA5" s="45"/>
-      <c r="HB5" s="45"/>
-      <c r="HC5" s="45"/>
-      <c r="HD5" s="45"/>
-      <c r="HE5" s="45"/>
-      <c r="HF5" s="45"/>
-      <c r="HG5" s="45"/>
-      <c r="HH5" s="45"/>
-      <c r="HI5" s="45"/>
-      <c r="HJ5" s="45"/>
-      <c r="HK5" s="45"/>
-      <c r="HL5" s="45"/>
-      <c r="HM5" s="45"/>
-      <c r="HN5" s="45"/>
-      <c r="HO5" s="45"/>
-      <c r="HP5" s="45"/>
-      <c r="HQ5" s="45"/>
-      <c r="HR5" s="45"/>
-      <c r="HS5" s="45"/>
-      <c r="HT5" s="45"/>
-      <c r="HU5" s="45"/>
-      <c r="HV5" s="45"/>
-      <c r="HW5" s="45"/>
-      <c r="HX5" s="45"/>
-      <c r="HY5" s="45"/>
-      <c r="HZ5" s="45"/>
-      <c r="IA5" s="45"/>
-      <c r="IB5" s="45"/>
-      <c r="IC5" s="45"/>
-      <c r="ID5" s="45"/>
-      <c r="IE5" s="45"/>
-      <c r="IF5" s="45"/>
-      <c r="IG5" s="45"/>
-      <c r="IH5" s="45"/>
-      <c r="II5" s="45"/>
-      <c r="IJ5" s="45"/>
-      <c r="IK5" s="45"/>
-      <c r="IL5" s="45"/>
-      <c r="IM5" s="45"/>
-      <c r="IN5" s="45"/>
-      <c r="IO5" s="45"/>
-      <c r="IP5" s="45"/>
-      <c r="IQ5" s="45"/>
-      <c r="IR5" s="45"/>
-      <c r="IS5" s="45"/>
-      <c r="IT5" s="45"/>
-      <c r="IU5" s="45"/>
-      <c r="IV5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="46"/>
+      <c r="BW5" s="46"/>
+      <c r="BX5" s="46"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="46"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="46"/>
+      <c r="CE5" s="46"/>
+      <c r="CF5" s="46"/>
+      <c r="CG5" s="46"/>
+      <c r="CH5" s="46"/>
+      <c r="CI5" s="46"/>
+      <c r="CJ5" s="46"/>
+      <c r="CK5" s="46"/>
+      <c r="CL5" s="46"/>
+      <c r="CM5" s="46"/>
+      <c r="CN5" s="46"/>
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="46"/>
+      <c r="CQ5" s="46"/>
+      <c r="CR5" s="46"/>
+      <c r="CS5" s="46"/>
+      <c r="CT5" s="46"/>
+      <c r="CU5" s="46"/>
+      <c r="CV5" s="46"/>
+      <c r="CW5" s="46"/>
+      <c r="CX5" s="46"/>
+      <c r="CY5" s="46"/>
+      <c r="CZ5" s="46"/>
+      <c r="DA5" s="46"/>
+      <c r="DB5" s="46"/>
+      <c r="DC5" s="46"/>
+      <c r="DD5" s="46"/>
+      <c r="DE5" s="46"/>
+      <c r="DF5" s="46"/>
+      <c r="DG5" s="46"/>
+      <c r="DH5" s="46"/>
+      <c r="DI5" s="46"/>
+      <c r="DJ5" s="46"/>
+      <c r="DK5" s="46"/>
+      <c r="DL5" s="46"/>
+      <c r="DM5" s="46"/>
+      <c r="DN5" s="46"/>
+      <c r="DO5" s="46"/>
+      <c r="DP5" s="46"/>
+      <c r="DQ5" s="46"/>
+      <c r="DR5" s="46"/>
+      <c r="DS5" s="46"/>
+      <c r="DT5" s="46"/>
+      <c r="DU5" s="46"/>
+      <c r="DV5" s="46"/>
+      <c r="DW5" s="46"/>
+      <c r="DX5" s="46"/>
+      <c r="DY5" s="46"/>
+      <c r="DZ5" s="46"/>
+      <c r="EA5" s="46"/>
+      <c r="EB5" s="46"/>
+      <c r="EC5" s="46"/>
+      <c r="ED5" s="46"/>
+      <c r="EE5" s="46"/>
+      <c r="EF5" s="46"/>
+      <c r="EG5" s="46"/>
+      <c r="EH5" s="46"/>
+      <c r="EI5" s="46"/>
+      <c r="EJ5" s="46"/>
+      <c r="EK5" s="46"/>
+      <c r="EL5" s="46"/>
+      <c r="EM5" s="46"/>
+      <c r="EN5" s="46"/>
+      <c r="EO5" s="46"/>
+      <c r="EP5" s="46"/>
+      <c r="EQ5" s="46"/>
+      <c r="ER5" s="46"/>
+      <c r="ES5" s="46"/>
+      <c r="ET5" s="46"/>
+      <c r="EU5" s="46"/>
+      <c r="EV5" s="46"/>
+      <c r="EW5" s="46"/>
+      <c r="EX5" s="46"/>
+      <c r="EY5" s="46"/>
+      <c r="EZ5" s="46"/>
+      <c r="FA5" s="46"/>
+      <c r="FB5" s="46"/>
+      <c r="FC5" s="46"/>
+      <c r="FD5" s="46"/>
+      <c r="FE5" s="46"/>
+      <c r="FF5" s="46"/>
+      <c r="FG5" s="46"/>
+      <c r="FH5" s="46"/>
+      <c r="FI5" s="46"/>
+      <c r="FJ5" s="46"/>
+      <c r="FK5" s="46"/>
+      <c r="FL5" s="46"/>
+      <c r="FM5" s="46"/>
+      <c r="FN5" s="46"/>
+      <c r="FO5" s="46"/>
+      <c r="FP5" s="46"/>
+      <c r="FQ5" s="46"/>
+      <c r="FR5" s="46"/>
+      <c r="FS5" s="46"/>
+      <c r="FT5" s="46"/>
+      <c r="FU5" s="46"/>
+      <c r="FV5" s="46"/>
+      <c r="FW5" s="46"/>
+      <c r="FX5" s="46"/>
+      <c r="FY5" s="46"/>
+      <c r="FZ5" s="46"/>
+      <c r="GA5" s="46"/>
+      <c r="GB5" s="46"/>
+      <c r="GC5" s="46"/>
+      <c r="GD5" s="46"/>
+      <c r="GE5" s="46"/>
+      <c r="GF5" s="46"/>
+      <c r="GG5" s="46"/>
+      <c r="GH5" s="46"/>
+      <c r="GI5" s="46"/>
+      <c r="GJ5" s="46"/>
+      <c r="GK5" s="46"/>
+      <c r="GL5" s="46"/>
+      <c r="GM5" s="46"/>
+      <c r="GN5" s="46"/>
+      <c r="GO5" s="46"/>
+      <c r="GP5" s="46"/>
+      <c r="GQ5" s="46"/>
+      <c r="GR5" s="46"/>
+      <c r="GS5" s="46"/>
+      <c r="GT5" s="46"/>
+      <c r="GU5" s="46"/>
+      <c r="GV5" s="46"/>
+      <c r="GW5" s="46"/>
+      <c r="GX5" s="46"/>
+      <c r="GY5" s="46"/>
+      <c r="GZ5" s="46"/>
+      <c r="HA5" s="46"/>
+      <c r="HB5" s="46"/>
+      <c r="HC5" s="46"/>
+      <c r="HD5" s="46"/>
+      <c r="HE5" s="46"/>
+      <c r="HF5" s="46"/>
+      <c r="HG5" s="46"/>
+      <c r="HH5" s="46"/>
+      <c r="HI5" s="46"/>
+      <c r="HJ5" s="46"/>
+      <c r="HK5" s="46"/>
+      <c r="HL5" s="46"/>
+      <c r="HM5" s="46"/>
+      <c r="HN5" s="46"/>
+      <c r="HO5" s="46"/>
+      <c r="HP5" s="46"/>
+      <c r="HQ5" s="46"/>
+      <c r="HR5" s="46"/>
+      <c r="HS5" s="46"/>
+      <c r="HT5" s="46"/>
+      <c r="HU5" s="46"/>
+      <c r="HV5" s="46"/>
+      <c r="HW5" s="46"/>
+      <c r="HX5" s="46"/>
+      <c r="HY5" s="46"/>
+      <c r="HZ5" s="46"/>
+      <c r="IA5" s="46"/>
+      <c r="IB5" s="46"/>
+      <c r="IC5" s="46"/>
+      <c r="ID5" s="46"/>
+      <c r="IE5" s="46"/>
+      <c r="IF5" s="46"/>
+      <c r="IG5" s="46"/>
+      <c r="IH5" s="46"/>
+      <c r="II5" s="46"/>
+      <c r="IJ5" s="46"/>
+      <c r="IK5" s="46"/>
+      <c r="IL5" s="46"/>
+      <c r="IM5" s="46"/>
+      <c r="IN5" s="46"/>
+      <c r="IO5" s="46"/>
+      <c r="IP5" s="46"/>
+      <c r="IQ5" s="46"/>
+      <c r="IR5" s="46"/>
+      <c r="IS5" s="46"/>
+      <c r="IT5" s="46"/>
+      <c r="IU5" s="46"/>
+      <c r="IV5" s="46"/>
     </row>
     <row r="6" s="39" customFormat="1" ht="15" customHeight="1" spans="1:256">
       <c r="A6" s="10" t="s">
@@ -2194,250 +2213,250 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="45"/>
-      <c r="BC6" s="45"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="45"/>
-      <c r="BF6" s="45"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="45"/>
-      <c r="BI6" s="45"/>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="45"/>
-      <c r="BL6" s="45"/>
-      <c r="BM6" s="45"/>
-      <c r="BN6" s="45"/>
-      <c r="BO6" s="45"/>
-      <c r="BP6" s="45"/>
-      <c r="BQ6" s="45"/>
-      <c r="BR6" s="45"/>
-      <c r="BS6" s="45"/>
-      <c r="BT6" s="45"/>
-      <c r="BU6" s="45"/>
-      <c r="BV6" s="45"/>
-      <c r="BW6" s="45"/>
-      <c r="BX6" s="45"/>
-      <c r="BY6" s="45"/>
-      <c r="BZ6" s="45"/>
-      <c r="CA6" s="45"/>
-      <c r="CB6" s="45"/>
-      <c r="CC6" s="45"/>
-      <c r="CD6" s="45"/>
-      <c r="CE6" s="45"/>
-      <c r="CF6" s="45"/>
-      <c r="CG6" s="45"/>
-      <c r="CH6" s="45"/>
-      <c r="CI6" s="45"/>
-      <c r="CJ6" s="45"/>
-      <c r="CK6" s="45"/>
-      <c r="CL6" s="45"/>
-      <c r="CM6" s="45"/>
-      <c r="CN6" s="45"/>
-      <c r="CO6" s="45"/>
-      <c r="CP6" s="45"/>
-      <c r="CQ6" s="45"/>
-      <c r="CR6" s="45"/>
-      <c r="CS6" s="45"/>
-      <c r="CT6" s="45"/>
-      <c r="CU6" s="45"/>
-      <c r="CV6" s="45"/>
-      <c r="CW6" s="45"/>
-      <c r="CX6" s="45"/>
-      <c r="CY6" s="45"/>
-      <c r="CZ6" s="45"/>
-      <c r="DA6" s="45"/>
-      <c r="DB6" s="45"/>
-      <c r="DC6" s="45"/>
-      <c r="DD6" s="45"/>
-      <c r="DE6" s="45"/>
-      <c r="DF6" s="45"/>
-      <c r="DG6" s="45"/>
-      <c r="DH6" s="45"/>
-      <c r="DI6" s="45"/>
-      <c r="DJ6" s="45"/>
-      <c r="DK6" s="45"/>
-      <c r="DL6" s="45"/>
-      <c r="DM6" s="45"/>
-      <c r="DN6" s="45"/>
-      <c r="DO6" s="45"/>
-      <c r="DP6" s="45"/>
-      <c r="DQ6" s="45"/>
-      <c r="DR6" s="45"/>
-      <c r="DS6" s="45"/>
-      <c r="DT6" s="45"/>
-      <c r="DU6" s="45"/>
-      <c r="DV6" s="45"/>
-      <c r="DW6" s="45"/>
-      <c r="DX6" s="45"/>
-      <c r="DY6" s="45"/>
-      <c r="DZ6" s="45"/>
-      <c r="EA6" s="45"/>
-      <c r="EB6" s="45"/>
-      <c r="EC6" s="45"/>
-      <c r="ED6" s="45"/>
-      <c r="EE6" s="45"/>
-      <c r="EF6" s="45"/>
-      <c r="EG6" s="45"/>
-      <c r="EH6" s="45"/>
-      <c r="EI6" s="45"/>
-      <c r="EJ6" s="45"/>
-      <c r="EK6" s="45"/>
-      <c r="EL6" s="45"/>
-      <c r="EM6" s="45"/>
-      <c r="EN6" s="45"/>
-      <c r="EO6" s="45"/>
-      <c r="EP6" s="45"/>
-      <c r="EQ6" s="45"/>
-      <c r="ER6" s="45"/>
-      <c r="ES6" s="45"/>
-      <c r="ET6" s="45"/>
-      <c r="EU6" s="45"/>
-      <c r="EV6" s="45"/>
-      <c r="EW6" s="45"/>
-      <c r="EX6" s="45"/>
-      <c r="EY6" s="45"/>
-      <c r="EZ6" s="45"/>
-      <c r="FA6" s="45"/>
-      <c r="FB6" s="45"/>
-      <c r="FC6" s="45"/>
-      <c r="FD6" s="45"/>
-      <c r="FE6" s="45"/>
-      <c r="FF6" s="45"/>
-      <c r="FG6" s="45"/>
-      <c r="FH6" s="45"/>
-      <c r="FI6" s="45"/>
-      <c r="FJ6" s="45"/>
-      <c r="FK6" s="45"/>
-      <c r="FL6" s="45"/>
-      <c r="FM6" s="45"/>
-      <c r="FN6" s="45"/>
-      <c r="FO6" s="45"/>
-      <c r="FP6" s="45"/>
-      <c r="FQ6" s="45"/>
-      <c r="FR6" s="45"/>
-      <c r="FS6" s="45"/>
-      <c r="FT6" s="45"/>
-      <c r="FU6" s="45"/>
-      <c r="FV6" s="45"/>
-      <c r="FW6" s="45"/>
-      <c r="FX6" s="45"/>
-      <c r="FY6" s="45"/>
-      <c r="FZ6" s="45"/>
-      <c r="GA6" s="45"/>
-      <c r="GB6" s="45"/>
-      <c r="GC6" s="45"/>
-      <c r="GD6" s="45"/>
-      <c r="GE6" s="45"/>
-      <c r="GF6" s="45"/>
-      <c r="GG6" s="45"/>
-      <c r="GH6" s="45"/>
-      <c r="GI6" s="45"/>
-      <c r="GJ6" s="45"/>
-      <c r="GK6" s="45"/>
-      <c r="GL6" s="45"/>
-      <c r="GM6" s="45"/>
-      <c r="GN6" s="45"/>
-      <c r="GO6" s="45"/>
-      <c r="GP6" s="45"/>
-      <c r="GQ6" s="45"/>
-      <c r="GR6" s="45"/>
-      <c r="GS6" s="45"/>
-      <c r="GT6" s="45"/>
-      <c r="GU6" s="45"/>
-      <c r="GV6" s="45"/>
-      <c r="GW6" s="45"/>
-      <c r="GX6" s="45"/>
-      <c r="GY6" s="45"/>
-      <c r="GZ6" s="45"/>
-      <c r="HA6" s="45"/>
-      <c r="HB6" s="45"/>
-      <c r="HC6" s="45"/>
-      <c r="HD6" s="45"/>
-      <c r="HE6" s="45"/>
-      <c r="HF6" s="45"/>
-      <c r="HG6" s="45"/>
-      <c r="HH6" s="45"/>
-      <c r="HI6" s="45"/>
-      <c r="HJ6" s="45"/>
-      <c r="HK6" s="45"/>
-      <c r="HL6" s="45"/>
-      <c r="HM6" s="45"/>
-      <c r="HN6" s="45"/>
-      <c r="HO6" s="45"/>
-      <c r="HP6" s="45"/>
-      <c r="HQ6" s="45"/>
-      <c r="HR6" s="45"/>
-      <c r="HS6" s="45"/>
-      <c r="HT6" s="45"/>
-      <c r="HU6" s="45"/>
-      <c r="HV6" s="45"/>
-      <c r="HW6" s="45"/>
-      <c r="HX6" s="45"/>
-      <c r="HY6" s="45"/>
-      <c r="HZ6" s="45"/>
-      <c r="IA6" s="45"/>
-      <c r="IB6" s="45"/>
-      <c r="IC6" s="45"/>
-      <c r="ID6" s="45"/>
-      <c r="IE6" s="45"/>
-      <c r="IF6" s="45"/>
-      <c r="IG6" s="45"/>
-      <c r="IH6" s="45"/>
-      <c r="II6" s="45"/>
-      <c r="IJ6" s="45"/>
-      <c r="IK6" s="45"/>
-      <c r="IL6" s="45"/>
-      <c r="IM6" s="45"/>
-      <c r="IN6" s="45"/>
-      <c r="IO6" s="45"/>
-      <c r="IP6" s="45"/>
-      <c r="IQ6" s="45"/>
-      <c r="IR6" s="45"/>
-      <c r="IS6" s="45"/>
-      <c r="IT6" s="45"/>
-      <c r="IU6" s="45"/>
-      <c r="IV6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="46"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="46"/>
+      <c r="BD6" s="46"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="46"/>
+      <c r="BG6" s="46"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="46"/>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="46"/>
+      <c r="BM6" s="46"/>
+      <c r="BN6" s="46"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="46"/>
+      <c r="BQ6" s="46"/>
+      <c r="BR6" s="46"/>
+      <c r="BS6" s="46"/>
+      <c r="BT6" s="46"/>
+      <c r="BU6" s="46"/>
+      <c r="BV6" s="46"/>
+      <c r="BW6" s="46"/>
+      <c r="BX6" s="46"/>
+      <c r="BY6" s="46"/>
+      <c r="BZ6" s="46"/>
+      <c r="CA6" s="46"/>
+      <c r="CB6" s="46"/>
+      <c r="CC6" s="46"/>
+      <c r="CD6" s="46"/>
+      <c r="CE6" s="46"/>
+      <c r="CF6" s="46"/>
+      <c r="CG6" s="46"/>
+      <c r="CH6" s="46"/>
+      <c r="CI6" s="46"/>
+      <c r="CJ6" s="46"/>
+      <c r="CK6" s="46"/>
+      <c r="CL6" s="46"/>
+      <c r="CM6" s="46"/>
+      <c r="CN6" s="46"/>
+      <c r="CO6" s="46"/>
+      <c r="CP6" s="46"/>
+      <c r="CQ6" s="46"/>
+      <c r="CR6" s="46"/>
+      <c r="CS6" s="46"/>
+      <c r="CT6" s="46"/>
+      <c r="CU6" s="46"/>
+      <c r="CV6" s="46"/>
+      <c r="CW6" s="46"/>
+      <c r="CX6" s="46"/>
+      <c r="CY6" s="46"/>
+      <c r="CZ6" s="46"/>
+      <c r="DA6" s="46"/>
+      <c r="DB6" s="46"/>
+      <c r="DC6" s="46"/>
+      <c r="DD6" s="46"/>
+      <c r="DE6" s="46"/>
+      <c r="DF6" s="46"/>
+      <c r="DG6" s="46"/>
+      <c r="DH6" s="46"/>
+      <c r="DI6" s="46"/>
+      <c r="DJ6" s="46"/>
+      <c r="DK6" s="46"/>
+      <c r="DL6" s="46"/>
+      <c r="DM6" s="46"/>
+      <c r="DN6" s="46"/>
+      <c r="DO6" s="46"/>
+      <c r="DP6" s="46"/>
+      <c r="DQ6" s="46"/>
+      <c r="DR6" s="46"/>
+      <c r="DS6" s="46"/>
+      <c r="DT6" s="46"/>
+      <c r="DU6" s="46"/>
+      <c r="DV6" s="46"/>
+      <c r="DW6" s="46"/>
+      <c r="DX6" s="46"/>
+      <c r="DY6" s="46"/>
+      <c r="DZ6" s="46"/>
+      <c r="EA6" s="46"/>
+      <c r="EB6" s="46"/>
+      <c r="EC6" s="46"/>
+      <c r="ED6" s="46"/>
+      <c r="EE6" s="46"/>
+      <c r="EF6" s="46"/>
+      <c r="EG6" s="46"/>
+      <c r="EH6" s="46"/>
+      <c r="EI6" s="46"/>
+      <c r="EJ6" s="46"/>
+      <c r="EK6" s="46"/>
+      <c r="EL6" s="46"/>
+      <c r="EM6" s="46"/>
+      <c r="EN6" s="46"/>
+      <c r="EO6" s="46"/>
+      <c r="EP6" s="46"/>
+      <c r="EQ6" s="46"/>
+      <c r="ER6" s="46"/>
+      <c r="ES6" s="46"/>
+      <c r="ET6" s="46"/>
+      <c r="EU6" s="46"/>
+      <c r="EV6" s="46"/>
+      <c r="EW6" s="46"/>
+      <c r="EX6" s="46"/>
+      <c r="EY6" s="46"/>
+      <c r="EZ6" s="46"/>
+      <c r="FA6" s="46"/>
+      <c r="FB6" s="46"/>
+      <c r="FC6" s="46"/>
+      <c r="FD6" s="46"/>
+      <c r="FE6" s="46"/>
+      <c r="FF6" s="46"/>
+      <c r="FG6" s="46"/>
+      <c r="FH6" s="46"/>
+      <c r="FI6" s="46"/>
+      <c r="FJ6" s="46"/>
+      <c r="FK6" s="46"/>
+      <c r="FL6" s="46"/>
+      <c r="FM6" s="46"/>
+      <c r="FN6" s="46"/>
+      <c r="FO6" s="46"/>
+      <c r="FP6" s="46"/>
+      <c r="FQ6" s="46"/>
+      <c r="FR6" s="46"/>
+      <c r="FS6" s="46"/>
+      <c r="FT6" s="46"/>
+      <c r="FU6" s="46"/>
+      <c r="FV6" s="46"/>
+      <c r="FW6" s="46"/>
+      <c r="FX6" s="46"/>
+      <c r="FY6" s="46"/>
+      <c r="FZ6" s="46"/>
+      <c r="GA6" s="46"/>
+      <c r="GB6" s="46"/>
+      <c r="GC6" s="46"/>
+      <c r="GD6" s="46"/>
+      <c r="GE6" s="46"/>
+      <c r="GF6" s="46"/>
+      <c r="GG6" s="46"/>
+      <c r="GH6" s="46"/>
+      <c r="GI6" s="46"/>
+      <c r="GJ6" s="46"/>
+      <c r="GK6" s="46"/>
+      <c r="GL6" s="46"/>
+      <c r="GM6" s="46"/>
+      <c r="GN6" s="46"/>
+      <c r="GO6" s="46"/>
+      <c r="GP6" s="46"/>
+      <c r="GQ6" s="46"/>
+      <c r="GR6" s="46"/>
+      <c r="GS6" s="46"/>
+      <c r="GT6" s="46"/>
+      <c r="GU6" s="46"/>
+      <c r="GV6" s="46"/>
+      <c r="GW6" s="46"/>
+      <c r="GX6" s="46"/>
+      <c r="GY6" s="46"/>
+      <c r="GZ6" s="46"/>
+      <c r="HA6" s="46"/>
+      <c r="HB6" s="46"/>
+      <c r="HC6" s="46"/>
+      <c r="HD6" s="46"/>
+      <c r="HE6" s="46"/>
+      <c r="HF6" s="46"/>
+      <c r="HG6" s="46"/>
+      <c r="HH6" s="46"/>
+      <c r="HI6" s="46"/>
+      <c r="HJ6" s="46"/>
+      <c r="HK6" s="46"/>
+      <c r="HL6" s="46"/>
+      <c r="HM6" s="46"/>
+      <c r="HN6" s="46"/>
+      <c r="HO6" s="46"/>
+      <c r="HP6" s="46"/>
+      <c r="HQ6" s="46"/>
+      <c r="HR6" s="46"/>
+      <c r="HS6" s="46"/>
+      <c r="HT6" s="46"/>
+      <c r="HU6" s="46"/>
+      <c r="HV6" s="46"/>
+      <c r="HW6" s="46"/>
+      <c r="HX6" s="46"/>
+      <c r="HY6" s="46"/>
+      <c r="HZ6" s="46"/>
+      <c r="IA6" s="46"/>
+      <c r="IB6" s="46"/>
+      <c r="IC6" s="46"/>
+      <c r="ID6" s="46"/>
+      <c r="IE6" s="46"/>
+      <c r="IF6" s="46"/>
+      <c r="IG6" s="46"/>
+      <c r="IH6" s="46"/>
+      <c r="II6" s="46"/>
+      <c r="IJ6" s="46"/>
+      <c r="IK6" s="46"/>
+      <c r="IL6" s="46"/>
+      <c r="IM6" s="46"/>
+      <c r="IN6" s="46"/>
+      <c r="IO6" s="46"/>
+      <c r="IP6" s="46"/>
+      <c r="IQ6" s="46"/>
+      <c r="IR6" s="46"/>
+      <c r="IS6" s="46"/>
+      <c r="IT6" s="46"/>
+      <c r="IU6" s="46"/>
+      <c r="IV6" s="46"/>
     </row>
     <row r="7" ht="15.25" spans="1:7">
       <c r="A7" s="40" t="s">
@@ -2446,7 +2465,7 @@
       <c r="B7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -2455,7 +2474,7 @@
       <c r="E7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="40" t="s">
@@ -2655,10 +2674,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2671,7 +2690,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -2680,7 +2699,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2693,16 +2712,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2715,7 +2734,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -2724,7 +2743,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2737,16 +2756,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2759,7 +2778,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -2768,7 +2787,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2781,22 +2800,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2807,7 +2826,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -2816,13 +2835,13 @@
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2833,16 +2852,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2855,7 +2874,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -2864,7 +2883,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2877,16 +2896,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2899,7 +2918,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
@@ -2908,7 +2927,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2945,141 +2964,141 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="38"/>
     </row>
@@ -3116,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -3131,66 +3150,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="14.75"/>
@@ -3199,15 +3218,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -3216,16 +3235,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -3236,7 +3255,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -3250,7 +3269,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3264,7 +3283,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -3278,7 +3297,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -3292,7 +3311,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -3306,7 +3325,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3384,15 +3403,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3401,16 +3420,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -3421,7 +3440,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -3435,7 +3454,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3449,7 +3468,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -3463,7 +3482,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -3477,7 +3496,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -3491,7 +3510,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3569,15 +3588,15 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -3586,16 +3605,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -3606,7 +3625,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -3620,7 +3639,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -3634,7 +3653,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -3648,7 +3667,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -3662,7 +3681,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -3676,7 +3695,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -3754,15 +3773,15 @@
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -3771,16 +3790,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -3791,7 +3810,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -3805,7 +3824,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -3819,7 +3838,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -3833,7 +3852,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -3847,7 +3866,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -3861,7 +3880,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -3979,7 +3998,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -3994,66 +4013,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="14.75"/>
@@ -4062,15 +4081,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -4079,16 +4098,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -4099,7 +4118,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -4113,7 +4132,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4127,7 +4146,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -4141,7 +4160,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -4155,7 +4174,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -4169,7 +4188,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4247,15 +4266,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -4264,16 +4283,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -4284,7 +4303,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -4298,7 +4317,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4312,7 +4331,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -4326,7 +4345,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -4340,7 +4359,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -4354,7 +4373,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -4432,15 +4451,15 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -4449,16 +4468,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -4469,7 +4488,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -4483,7 +4502,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -4497,7 +4516,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -4511,7 +4530,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -4525,7 +4544,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -4539,7 +4558,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -4617,15 +4636,15 @@
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -4634,16 +4653,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -4654,7 +4673,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -4668,7 +4687,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -4682,7 +4701,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -4696,7 +4715,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -4710,7 +4729,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -4724,7 +4743,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -4838,23 +4857,23 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4865,29 +4884,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -4896,11 +4915,11 @@
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
@@ -4909,41 +4928,41 @@
         <v>21</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -4952,11 +4971,11 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
@@ -4965,41 +4984,41 @@
         <v>21</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -5008,11 +5027,11 @@
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H7" s="4">
         <v>2</v>
@@ -5021,46 +5040,46 @@
         <v>21</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -5069,14 +5088,14 @@
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
@@ -5085,43 +5104,43 @@
         <v>21</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -5130,11 +5149,11 @@
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H11" s="4">
         <v>2</v>
@@ -5143,41 +5162,41 @@
         <v>21</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
@@ -5186,11 +5205,11 @@
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" s="4">
         <v>2</v>
@@ -5199,37 +5218,37 @@
         <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -5237,7 +5256,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -5246,13 +5265,13 @@
         <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
@@ -5261,7 +5280,7 @@
         <v>21</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>

--- a/Tables/Sources/sdk/ad_config.xlsx
+++ b/Tables/Sources/sdk/ad_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -114,7 +114,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>MixFull0</t>
+    <t>Inter0</t>
   </si>
   <si>
     <t>8</t>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>XXX-Facebook-Android-Inter0</t>
-  </si>
-  <si>
-    <t>Inter0</t>
   </si>
   <si>
     <t>FaceBook</t>
@@ -371,11 +368,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -428,50 +425,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -487,7 +440,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +470,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,9 +505,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,24 +545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,6 +556,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,7 +595,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,13 +631,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,19 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,25 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,49 +715,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +745,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,25 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,11 +1019,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,24 +1076,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,10 +1105,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,133 +1117,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1750,7 +1747,7 @@
   <dimension ref="A1:IV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="14" outlineLevelRow="6"/>
@@ -2674,10 +2671,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2690,7 +2687,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -2699,7 +2696,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2712,16 +2709,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2734,7 +2731,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -2743,7 +2740,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2756,16 +2753,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2778,7 +2775,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -2787,7 +2784,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2800,22 +2797,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2826,7 +2823,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -2835,13 +2832,13 @@
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2852,16 +2849,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2874,7 +2871,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -2883,7 +2880,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2896,16 +2893,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2918,7 +2915,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
@@ -2927,7 +2924,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2964,141 +2961,141 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="38"/>
     </row>
@@ -3135,7 +3132,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -3150,66 +3147,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="29" t="s">
         <v>82</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" ht="14.75"/>
@@ -3218,15 +3215,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -3235,16 +3232,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -3255,7 +3252,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3283,7 +3280,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -3311,7 +3308,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -3325,7 +3322,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3403,15 +3400,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3420,16 +3417,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -3440,7 +3437,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -3454,7 +3451,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3468,7 +3465,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -3482,7 +3479,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -3496,7 +3493,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -3510,7 +3507,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3588,15 +3585,15 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -3605,16 +3602,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="D34" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -3625,7 +3622,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -3639,7 +3636,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -3653,7 +3650,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -3667,7 +3664,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -3681,7 +3678,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -3773,15 +3770,15 @@
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -3790,16 +3787,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="D48" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -3810,7 +3807,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -3824,7 +3821,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -3838,7 +3835,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -3852,7 +3849,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -3866,7 +3863,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -3880,7 +3877,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -3998,7 +3995,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -4013,66 +4010,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="29" t="s">
         <v>82</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" ht="14.75"/>
@@ -4081,15 +4078,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -4098,16 +4095,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -4118,7 +4115,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -4132,7 +4129,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4146,7 +4143,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -4160,7 +4157,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -4174,7 +4171,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -4188,7 +4185,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4266,15 +4263,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -4283,16 +4280,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -4303,7 +4300,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -4317,7 +4314,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4331,7 +4328,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -4359,7 +4356,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -4373,7 +4370,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -4451,15 +4448,15 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -4468,16 +4465,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="D34" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -4488,7 +4485,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -4502,7 +4499,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -4516,7 +4513,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -4530,7 +4527,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -4544,7 +4541,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -4558,7 +4555,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -4636,15 +4633,15 @@
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -4653,16 +4650,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="D48" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -4673,7 +4670,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -4687,7 +4684,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -4701,7 +4698,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -4715,7 +4712,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -4729,7 +4726,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -4743,7 +4740,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -4857,23 +4854,23 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4884,29 +4881,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -4915,11 +4912,11 @@
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
@@ -4928,41 +4925,41 @@
         <v>21</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -4971,11 +4968,11 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
@@ -4984,41 +4981,41 @@
         <v>21</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -5027,11 +5024,11 @@
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="4">
         <v>2</v>
@@ -5040,46 +5037,46 @@
         <v>21</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -5088,14 +5085,14 @@
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
@@ -5104,43 +5101,43 @@
         <v>21</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
@@ -5149,11 +5146,11 @@
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" s="4">
         <v>2</v>
@@ -5162,41 +5159,41 @@
         <v>21</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
@@ -5205,11 +5202,11 @@
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="4">
         <v>2</v>
@@ -5218,37 +5215,37 @@
         <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -5256,7 +5253,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -5265,13 +5262,13 @@
         <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
@@ -5280,7 +5277,7 @@
         <v>21</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
